--- a/public/template_reimbursement.xlsx
+++ b/public/template_reimbursement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED6FD31-A10A-499F-9137-DA17D7E4449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2492F605-8C2B-4F8B-9618-58E03842A9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CONFIDENTIAL</t>
   </si>
@@ -48,13 +48,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>User's Expense</t>
-  </si>
-  <si>
     <t>Payout</t>
-  </si>
-  <si>
-    <t>Total Payout</t>
   </si>
   <si>
     <r>
@@ -94,6 +88,9 @@
   </si>
   <si>
     <t>Receipt File</t>
+  </si>
+  <si>
+    <t>Requested Amount</t>
   </si>
 </sst>
 </file>
@@ -290,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -307,25 +304,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -347,7 +335,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -373,45 +361,6 @@
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF5B9BD5"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B9BD5"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B9BD5"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B9BD5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF5B9BD5"/>
         </left>
@@ -888,18 +837,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC844BDB-DFE9-4D06-A11B-6F7B61AE7611}" name="Table1" displayName="Table1" ref="A7:J100" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A7:J100" xr:uid="{DC844BDB-DFE9-4D06-A11B-6F7B61AE7611}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3FD589B1-477C-4950-88FE-8388C7C865DE}" name="Emp ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CF18E84B-C02C-4765-827E-926048BD9A54}" name="Employees Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4857E4FF-25F1-4973-95CF-A19B1A90EB95}" name="Form ID" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{D742F77C-BD9B-4B5D-BEBA-4B308A3E6928}" name="Reimbursement Type" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{F7FE71D7-0E18-4B93-B8D9-68B023D18AB1}" name="Payment Method" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{ED853198-9009-4AFD-A945-70DE42135016}" name="Description" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{ADD8C787-1043-41D6-A9BA-540F90572F4F}" name="User's Expense" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{DA5727F9-E52A-422D-B897-433139F91AA3}" name="Payout" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{03FE0808-81FA-4E14-935D-7C990A112B2E}" name="Total Payout" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC844BDB-DFE9-4D06-A11B-6F7B61AE7611}" name="Table1" displayName="Table1" ref="A7:I100" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A7:I100" xr:uid="{DC844BDB-DFE9-4D06-A11B-6F7B61AE7611}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3FD589B1-477C-4950-88FE-8388C7C865DE}" name="Emp ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CF18E84B-C02C-4765-827E-926048BD9A54}" name="Employees Name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4857E4FF-25F1-4973-95CF-A19B1A90EB95}" name="Form ID" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D742F77C-BD9B-4B5D-BEBA-4B308A3E6928}" name="Reimbursement Type" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F7FE71D7-0E18-4B93-B8D9-68B023D18AB1}" name="Payment Method" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{ED853198-9009-4AFD-A945-70DE42135016}" name="Description" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{ADD8C787-1043-41D6-A9BA-540F90572F4F}" name="Requested Amount" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{DA5727F9-E52A-422D-B897-433139F91AA3}" name="Payout" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{ECDD62D4-519D-4EDF-A760-B13B7DAC8A41}" name="Receipt File" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1169,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,97 +1133,91 @@
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1295,19 +1237,16 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1316,22 +1255,20 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1340,22 +1277,20 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1364,22 +1299,20 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1388,34 +1321,31 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1424,10 +1354,9 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1436,10 +1365,9 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1448,10 +1376,9 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1460,10 +1387,9 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1472,10 +1398,9 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1484,10 +1409,9 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1496,10 +1420,9 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1508,10 +1431,9 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1520,10 +1442,9 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1532,10 +1453,9 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1544,10 +1464,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1556,10 +1475,9 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1568,10 +1486,9 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1580,10 +1497,9 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1592,10 +1508,9 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1604,10 +1519,9 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1616,10 +1530,9 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1628,10 +1541,9 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1640,10 +1552,9 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1652,10 +1563,9 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1664,10 +1574,9 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1676,10 +1585,9 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1688,10 +1596,9 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1700,10 +1607,9 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1712,10 +1618,9 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1724,10 +1629,9 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1736,10 +1640,9 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1748,10 +1651,9 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1760,10 +1662,9 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1772,10 +1673,9 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1784,10 +1684,9 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1796,10 +1695,9 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="13"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1808,10 +1706,9 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1820,10 +1717,9 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1832,10 +1728,9 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="13"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1844,10 +1739,9 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1856,10 +1750,9 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1868,10 +1761,9 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="13"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1880,10 +1772,9 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="13"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1892,10 +1783,9 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="13"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1904,10 +1794,9 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="13"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1916,10 +1805,9 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="13"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1928,10 +1816,9 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1940,10 +1827,9 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="13"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1952,10 +1838,9 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="13"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1964,10 +1849,9 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="13"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1976,10 +1860,9 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="13"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1988,10 +1871,9 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2000,10 +1882,9 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="13"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2012,10 +1893,9 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2024,10 +1904,9 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="13"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2036,10 +1915,9 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="13"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2048,10 +1926,9 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2060,10 +1937,9 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2072,10 +1948,9 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2084,10 +1959,9 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2096,10 +1970,9 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2108,10 +1981,9 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="13"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2120,10 +1992,9 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="13"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2132,10 +2003,9 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="13"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I76" s="10"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2144,10 +2014,9 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="13"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I77" s="10"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2156,10 +2025,9 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="13"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I78" s="10"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2168,10 +2036,9 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="13"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I79" s="10"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2180,10 +2047,9 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="13"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2192,10 +2058,9 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="13"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2204,10 +2069,9 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="13"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2216,10 +2080,9 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="13"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2228,10 +2091,9 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="13"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2240,10 +2102,9 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="13"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I85" s="10"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2252,10 +2113,9 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="13"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I86" s="10"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2264,10 +2124,9 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="13"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I87" s="10"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2276,10 +2135,9 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="13"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2288,10 +2146,9 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="13"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2300,10 +2157,9 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="13"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2312,10 +2168,9 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="13"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2324,10 +2179,9 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="13"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2336,10 +2190,9 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="13"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2348,10 +2201,9 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="13"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I94" s="10"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2360,10 +2212,9 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="13"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2372,10 +2223,9 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="13"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I96" s="10"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2384,10 +2234,9 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="13"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I97" s="10"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2396,10 +2245,9 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="13"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I98" s="10"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2408,30 +2256,29 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="13"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="12"/>
-      <c r="J100" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:J5"/>
+    <mergeCell ref="A1:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>